--- a/SchedulingData/static5/pso/scheduling1_1.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_1.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.56</v>
+        <v>47.56</v>
       </c>
       <c r="E2" t="n">
         <v>25.944</v>
@@ -481,40 +481,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.48</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>27.052</v>
+        <v>25.424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77.45999999999999</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
-        <v>25.424</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>47.56</v>
       </c>
       <c r="D5" t="n">
-        <v>66.52</v>
+        <v>112.68</v>
       </c>
       <c r="E5" t="n">
-        <v>25.528</v>
+        <v>22.072</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66.52</v>
+        <v>112.68</v>
       </c>
       <c r="D6" t="n">
-        <v>125.52</v>
+        <v>177.28</v>
       </c>
       <c r="E6" t="n">
-        <v>22.228</v>
+        <v>18.712</v>
       </c>
     </row>
     <row r="7">
@@ -561,74 +561,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>62.7</v>
+        <v>133.96</v>
       </c>
       <c r="E7" t="n">
-        <v>26.88</v>
+        <v>21.904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>110.1</v>
+        <v>62.8</v>
       </c>
       <c r="E8" t="n">
-        <v>23.28</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>72.56</v>
+        <v>177.28</v>
       </c>
       <c r="D9" t="n">
-        <v>118.06</v>
+        <v>237.8</v>
       </c>
       <c r="E9" t="n">
-        <v>22.524</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>67.8</v>
+        <v>66.52</v>
       </c>
       <c r="E10" t="n">
-        <v>26.88</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="11">
@@ -637,169 +637,169 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.45999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="D11" t="n">
-        <v>127.78</v>
+        <v>126.32</v>
       </c>
       <c r="E11" t="n">
-        <v>22.512</v>
+        <v>20.188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41.48</v>
+        <v>237.8</v>
       </c>
       <c r="D12" t="n">
-        <v>113.88</v>
+        <v>290.1</v>
       </c>
       <c r="E12" t="n">
-        <v>21.952</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113.88</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
-        <v>202.2</v>
+        <v>134.9</v>
       </c>
       <c r="E13" t="n">
-        <v>18.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110.1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>164.52</v>
+        <v>41.8</v>
       </c>
       <c r="E14" t="n">
-        <v>18.968</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>118.06</v>
+        <v>126.32</v>
       </c>
       <c r="D15" t="n">
-        <v>170.84</v>
+        <v>177</v>
       </c>
       <c r="E15" t="n">
-        <v>19.356</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125.52</v>
+        <v>177</v>
       </c>
       <c r="D16" t="n">
-        <v>175.3</v>
+        <v>240.14</v>
       </c>
       <c r="E16" t="n">
-        <v>18.38</v>
+        <v>14.556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>202.2</v>
+        <v>134.9</v>
       </c>
       <c r="D17" t="n">
-        <v>246.22</v>
+        <v>184.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.428</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>127.78</v>
+        <v>41.8</v>
       </c>
       <c r="D18" t="n">
-        <v>186.38</v>
+        <v>120.12</v>
       </c>
       <c r="E18" t="n">
-        <v>20.272</v>
+        <v>22.768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>164.52</v>
+        <v>120.12</v>
       </c>
       <c r="D19" t="n">
-        <v>209.62</v>
+        <v>169.52</v>
       </c>
       <c r="E19" t="n">
-        <v>15.588</v>
+        <v>19.468</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>186.38</v>
+        <v>240.14</v>
       </c>
       <c r="D20" t="n">
-        <v>274.72</v>
+        <v>289.92</v>
       </c>
       <c r="E20" t="n">
-        <v>16.008</v>
+        <v>10.708</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>209.62</v>
+        <v>184.9</v>
       </c>
       <c r="D21" t="n">
-        <v>264.62</v>
+        <v>239.32</v>
       </c>
       <c r="E21" t="n">
-        <v>12.208</v>
+        <v>13.608</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>274.72</v>
+        <v>62.8</v>
       </c>
       <c r="D22" t="n">
-        <v>339.08</v>
+        <v>112.58</v>
       </c>
       <c r="E22" t="n">
-        <v>13.152</v>
+        <v>23.512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>264.62</v>
+        <v>112.58</v>
       </c>
       <c r="D23" t="n">
-        <v>328.32</v>
+        <v>182.78</v>
       </c>
       <c r="E23" t="n">
-        <v>8.468</v>
+        <v>19.092</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>170.84</v>
+        <v>239.32</v>
       </c>
       <c r="D24" t="n">
-        <v>237.24</v>
+        <v>319.42</v>
       </c>
       <c r="E24" t="n">
-        <v>15.836</v>
+        <v>10.188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>67.8</v>
+        <v>169.52</v>
       </c>
       <c r="D25" t="n">
-        <v>114.92</v>
+        <v>223.6</v>
       </c>
       <c r="E25" t="n">
-        <v>24.288</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>237.24</v>
+        <v>133.96</v>
       </c>
       <c r="D26" t="n">
-        <v>302.04</v>
+        <v>192.8</v>
       </c>
       <c r="E26" t="n">
-        <v>10.496</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>114.92</v>
+        <v>289.92</v>
       </c>
       <c r="D27" t="n">
-        <v>189.84</v>
+        <v>360.14</v>
       </c>
       <c r="E27" t="n">
-        <v>20.416</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>302.04</v>
+        <v>360.14</v>
       </c>
       <c r="D28" t="n">
-        <v>343.02</v>
+        <v>405</v>
       </c>
       <c r="E28" t="n">
-        <v>7.528</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>339.08</v>
+        <v>223.6</v>
       </c>
       <c r="D29" t="n">
-        <v>398.16</v>
+        <v>262.76</v>
       </c>
       <c r="E29" t="n">
-        <v>10.864</v>
+        <v>13.904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>189.84</v>
+        <v>192.8</v>
       </c>
       <c r="D30" t="n">
-        <v>244.52</v>
+        <v>260.48</v>
       </c>
       <c r="E30" t="n">
-        <v>16.568</v>
+        <v>14.472</v>
       </c>
     </row>
     <row r="31">
@@ -1017,207 +1017,207 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>246.22</v>
+        <v>262.76</v>
       </c>
       <c r="D31" t="n">
-        <v>296.62</v>
+        <v>316.78</v>
       </c>
       <c r="E31" t="n">
-        <v>12.508</v>
+        <v>11.132</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>328.32</v>
+        <v>290.1</v>
       </c>
       <c r="D32" t="n">
-        <v>360.68</v>
+        <v>330.3</v>
       </c>
       <c r="E32" t="n">
-        <v>5.872</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>296.62</v>
+        <v>319.42</v>
       </c>
       <c r="D33" t="n">
-        <v>375.48</v>
+        <v>415.02</v>
       </c>
       <c r="E33" t="n">
-        <v>9.231999999999999</v>
+        <v>6.708</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>175.3</v>
+        <v>182.78</v>
       </c>
       <c r="D34" t="n">
-        <v>252.94</v>
+        <v>266.28</v>
       </c>
       <c r="E34" t="n">
-        <v>15.696</v>
+        <v>15.352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>360.68</v>
+        <v>316.78</v>
       </c>
       <c r="D35" t="n">
-        <v>421</v>
+        <v>367.18</v>
       </c>
       <c r="E35" t="n">
-        <v>2.44</v>
+        <v>8.212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244.52</v>
+        <v>330.3</v>
       </c>
       <c r="D36" t="n">
-        <v>305.52</v>
+        <v>381.18</v>
       </c>
       <c r="E36" t="n">
-        <v>13.088</v>
+        <v>5.812</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>305.52</v>
+        <v>415.02</v>
       </c>
       <c r="D37" t="n">
-        <v>367.72</v>
+        <v>443.82</v>
       </c>
       <c r="E37" t="n">
-        <v>10.448</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>343.02</v>
+        <v>266.28</v>
       </c>
       <c r="D38" t="n">
-        <v>413.82</v>
+        <v>343.2</v>
       </c>
       <c r="E38" t="n">
-        <v>4.048</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>375.48</v>
+        <v>260.48</v>
       </c>
       <c r="D39" t="n">
-        <v>433.2</v>
+        <v>308.08</v>
       </c>
       <c r="E39" t="n">
-        <v>6.06</v>
+        <v>11.352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>252.94</v>
+        <v>308.08</v>
       </c>
       <c r="D40" t="n">
-        <v>333.34</v>
+        <v>360.24</v>
       </c>
       <c r="E40" t="n">
-        <v>11.276</v>
+        <v>8.756</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>398.16</v>
+        <v>360.24</v>
       </c>
       <c r="D41" t="n">
-        <v>448.16</v>
+        <v>427.76</v>
       </c>
       <c r="E41" t="n">
-        <v>7.504</v>
+        <v>5.584</v>
       </c>
     </row>
   </sheetData>
